--- a/comparison_results.xlsx
+++ b/comparison_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6302521008403361</v>
+        <v>0.7664233576642335</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7156536400424713</v>
+        <v>0.9030070267963548</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6471980810165405</v>
+        <v>0.9472801089286804</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7053571428571429</v>
+        <v>0.8970588235294118</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6436887416822692</v>
+        <v>0.9203656739344533</v>
       </c>
       <c r="D3" t="n">
-        <v>0.681634783744812</v>
+        <v>0.9320254325866699</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9253731343283582</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="C4" t="n">
-        <v>0.693972982471157</v>
+        <v>0.9234986331991534</v>
       </c>
       <c r="D4" t="n">
-        <v>0.677876889705658</v>
+        <v>0.9303379654884338</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.90625</v>
+        <v>0.8308823529411765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6411307149136226</v>
+        <v>0.872830382560401</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6757903099060059</v>
+        <v>0.9380431175231934</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7452830188679245</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5928238962263566</v>
+        <v>0.9080747409621259</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6339828372001648</v>
+        <v>0.8495137095451355</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8175675675675675</v>
+        <v>0.7051282051282052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6972540932771093</v>
+        <v>0.8831070416396846</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6503914594650269</v>
+        <v>0.9001182317733765</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,61 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.72</v>
+        <v>0.9014084507042254</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6627653810230917</v>
+        <v>0.9157880147982236</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6499682664871216</v>
+        <v>0.9132969379425049</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>images/o8.jpg</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.765625</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8733944826041757</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9110767841339111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>images/o9.jpg</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.7971014492753623</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8980996470468043</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8917647004127502</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>images/o10.jpg</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.746268656716418</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8442372302947252</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9459235668182373</v>
       </c>
     </row>
   </sheetData>
